--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H2">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I2">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J2">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N2">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O2">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P2">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q2">
-        <v>6471.166573062833</v>
+        <v>5280.760729265763</v>
       </c>
       <c r="R2">
-        <v>25884.66629225133</v>
+        <v>21123.04291706305</v>
       </c>
       <c r="S2">
-        <v>0.01223916823313696</v>
+        <v>0.01329020580625924</v>
       </c>
       <c r="T2">
-        <v>0.006520048801375846</v>
+        <v>0.007399318650415523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H3">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I3">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J3">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P3">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q3">
-        <v>1.688602288996</v>
+        <v>1.470844464922</v>
       </c>
       <c r="R3">
-        <v>10.131613733976</v>
+        <v>8.825066789532</v>
       </c>
       <c r="S3">
-        <v>3.193718977952436E-06</v>
+        <v>3.701706373378626E-06</v>
       </c>
       <c r="T3">
-        <v>2.552036608715646E-06</v>
+        <v>3.091386101109433E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H4">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I4">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J4">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N4">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O4">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P4">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q4">
-        <v>2673.104665516192</v>
+        <v>1719.035930253424</v>
       </c>
       <c r="R4">
-        <v>16038.62799309715</v>
+        <v>10314.21558152054</v>
       </c>
       <c r="S4">
-        <v>0.005055746492792112</v>
+        <v>0.004326335252193649</v>
       </c>
       <c r="T4">
-        <v>0.004039945349939102</v>
+        <v>0.003613029051562549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H5">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I5">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J5">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N5">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O5">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P5">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q5">
-        <v>41.521235129661</v>
+        <v>78.89580411870423</v>
       </c>
       <c r="R5">
-        <v>166.084940518644</v>
+        <v>315.5832164748169</v>
       </c>
       <c r="S5">
-        <v>7.853072181991921E-05</v>
+        <v>0.0001985587925195929</v>
       </c>
       <c r="T5">
-        <v>4.183488035460314E-05</v>
+        <v>0.0001105475564571217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H6">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I6">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J6">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N6">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O6">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P6">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q6">
-        <v>4394.173270433185</v>
+        <v>661.8980866864808</v>
       </c>
       <c r="R6">
-        <v>26365.03962259912</v>
+        <v>3971.388520118885</v>
       </c>
       <c r="S6">
-        <v>0.008310870272796976</v>
+        <v>0.00166581336398774</v>
       </c>
       <c r="T6">
-        <v>0.006641049301107402</v>
+        <v>0.001391161740301361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H7">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I7">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J7">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N7">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O7">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P7">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q7">
-        <v>1896.808600892828</v>
+        <v>2552.808495006486</v>
       </c>
       <c r="R7">
-        <v>11380.85160535697</v>
+        <v>15316.85097003892</v>
       </c>
       <c r="S7">
-        <v>0.003587507648006737</v>
+        <v>0.006424708867148462</v>
       </c>
       <c r="T7">
-        <v>0.002866705215757687</v>
+        <v>0.005365432503888605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J8">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N8">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O8">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P8">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q8">
-        <v>195171.4489353974</v>
+        <v>182848.2551900195</v>
       </c>
       <c r="R8">
-        <v>1171028.693612384</v>
+        <v>1097089.531140117</v>
       </c>
       <c r="S8">
-        <v>0.3691353283608689</v>
+        <v>0.460178195410995</v>
       </c>
       <c r="T8">
-        <v>0.2949686174802942</v>
+        <v>0.3843061371798497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J9">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P9">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q9">
         <v>50.92852296382667</v>
@@ -1013,10 +1013,10 @@
         <v>458.35670667444</v>
       </c>
       <c r="S9">
-        <v>9.632309003049381E-05</v>
+        <v>0.0001281729255118449</v>
       </c>
       <c r="T9">
-        <v>0.0001154547662393424</v>
+        <v>0.0001605605471501252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J10">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N10">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O10">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P10">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q10">
-        <v>80621.2766793046</v>
+        <v>59522.24245151398</v>
       </c>
       <c r="R10">
-        <v>725591.4901137414</v>
+        <v>535700.1820636258</v>
       </c>
       <c r="S10">
-        <v>0.1524821463498911</v>
+        <v>0.1498009269472565</v>
       </c>
       <c r="T10">
-        <v>0.1827681250355089</v>
+        <v>0.1876536616309401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J11">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N11">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O11">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P11">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q11">
-        <v>1252.28728550681</v>
+        <v>2731.795827250898</v>
       </c>
       <c r="R11">
-        <v>7513.72371304086</v>
+        <v>16390.77496350539</v>
       </c>
       <c r="S11">
-        <v>0.002368499495490802</v>
+        <v>0.006875170193498364</v>
       </c>
       <c r="T11">
-        <v>0.001892620315671082</v>
+        <v>0.005741623844557907</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J12">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N12">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O12">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P12">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q12">
-        <v>132528.989074952</v>
+        <v>22918.46127273084</v>
       </c>
       <c r="R12">
-        <v>1192760.901674568</v>
+        <v>206266.1514545776</v>
       </c>
       <c r="S12">
-        <v>0.2506572153169264</v>
+        <v>0.057679391794698</v>
       </c>
       <c r="T12">
-        <v>0.3004427099614288</v>
+        <v>0.07225421959325809</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J13">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N13">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O13">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P13">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q13">
-        <v>57208.05959939284</v>
+        <v>88391.91985339131</v>
       </c>
       <c r="R13">
-        <v>514872.5363945355</v>
+        <v>795527.2786805218</v>
       </c>
       <c r="S13">
-        <v>0.1081998211331619</v>
+        <v>0.2224578742891234</v>
       </c>
       <c r="T13">
-        <v>0.1296904517090669</v>
+        <v>0.2786700691357366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H14">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I14">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J14">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N14">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O14">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P14">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q14">
-        <v>237.9992434172001</v>
+        <v>29.96760966047</v>
       </c>
       <c r="R14">
-        <v>1427.9954605032</v>
+        <v>179.80565796282</v>
       </c>
       <c r="S14">
-        <v>0.0004501371965400869</v>
+        <v>7.542013742490947E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003596955813724824</v>
+        <v>6.298521305090036E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H15">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I15">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J15">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P15">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q15">
-        <v>0.06210411410000002</v>
+        <v>0.008346845285333334</v>
       </c>
       <c r="R15">
-        <v>0.5589370269000001</v>
+        <v>0.075121607568</v>
       </c>
       <c r="S15">
-        <v>1.174599188350166E-07</v>
+        <v>2.100668774108774E-08</v>
       </c>
       <c r="T15">
-        <v>1.407897884847315E-07</v>
+        <v>2.631480294338121E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H16">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I16">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J16">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N16">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O16">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P16">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q16">
-        <v>98.31255010744167</v>
+        <v>9.755298600192445</v>
       </c>
       <c r="R16">
-        <v>884.812950966975</v>
+        <v>87.79768740173199</v>
       </c>
       <c r="S16">
-        <v>0.0001859423376926264</v>
+        <v>2.455137294510536E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002228741740480166</v>
+        <v>3.075518373019118E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H17">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I17">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J17">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N17">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O17">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P17">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q17">
-        <v>1.527085176225</v>
+        <v>0.4477231184846667</v>
       </c>
       <c r="R17">
-        <v>9.162511057350002</v>
+        <v>2.686338710908</v>
       </c>
       <c r="S17">
-        <v>2.88823540039106E-06</v>
+        <v>1.126794546078354E-06</v>
       </c>
       <c r="T17">
-        <v>2.307930825245029E-06</v>
+        <v>9.410138587986386E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H18">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I18">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J18">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N18">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O18">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P18">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q18">
-        <v>161.6107238160917</v>
+        <v>3.756182965629333</v>
       </c>
       <c r="R18">
-        <v>1454.496514344825</v>
+        <v>33.80564669066399</v>
       </c>
       <c r="S18">
-        <v>0.0003056606277603501</v>
+        <v>9.453267667009023E-06</v>
       </c>
       <c r="T18">
-        <v>0.0003663708910861335</v>
+        <v>1.184198474763915E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H19">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I19">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J19">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N19">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O19">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P19">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q19">
-        <v>69.76161204054168</v>
+        <v>14.48684620235067</v>
       </c>
       <c r="R19">
-        <v>627.8545083648751</v>
+        <v>130.381615821156</v>
       </c>
       <c r="S19">
-        <v>0.0001319428415787021</v>
+        <v>3.645936208505992E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001581493069481166</v>
+        <v>4.567216595661436E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H20">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I20">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J20">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N20">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O20">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P20">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q20">
-        <v>13162.40354030671</v>
+        <v>15566.37995776835</v>
       </c>
       <c r="R20">
-        <v>52649.61416122683</v>
+        <v>62265.5198310734</v>
       </c>
       <c r="S20">
-        <v>0.02489456413513451</v>
+        <v>0.03917624825352296</v>
       </c>
       <c r="T20">
-        <v>0.0132618303759075</v>
+        <v>0.02181136609781304</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H21">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I21">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J21">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P21">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q21">
-        <v>3.434630293612</v>
+        <v>4.335686650764</v>
       </c>
       <c r="R21">
-        <v>20.607781761672</v>
+        <v>26.014119904584</v>
       </c>
       <c r="S21">
-        <v>6.496049438308545E-06</v>
+        <v>1.091171724194294E-05</v>
       </c>
       <c r="T21">
-        <v>5.190862468813315E-06</v>
+        <v>9.112643634721992E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H22">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I22">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J22">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N22">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O22">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P22">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q22">
-        <v>5437.115845458406</v>
+        <v>5067.293866030011</v>
       </c>
       <c r="R22">
-        <v>32622.69507275043</v>
+        <v>30403.76319618007</v>
       </c>
       <c r="S22">
-        <v>0.01028342800085328</v>
+        <v>0.01275296909157587</v>
       </c>
       <c r="T22">
-        <v>0.008217280512919308</v>
+        <v>0.01065031837238683</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H23">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I23">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J23">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N23">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O23">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P23">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q23">
-        <v>84.45451775936701</v>
+        <v>232.5653683150635</v>
       </c>
       <c r="R23">
-        <v>337.818071037468</v>
+        <v>930.261473260254</v>
       </c>
       <c r="S23">
-        <v>0.0001597321038231462</v>
+        <v>0.0005853023393365196</v>
       </c>
       <c r="T23">
-        <v>8.50924746057204E-05</v>
+        <v>0.000325866926270236</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H24">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I24">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J24">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N24">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O24">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P24">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q24">
-        <v>8937.782880173323</v>
+        <v>1951.112280770622</v>
       </c>
       <c r="R24">
-        <v>53626.69728103994</v>
+        <v>11706.67368462373</v>
       </c>
       <c r="S24">
-        <v>0.01690437528791928</v>
+        <v>0.004910406869763031</v>
       </c>
       <c r="T24">
-        <v>0.01350794634094465</v>
+        <v>0.004100801634928875</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H25">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I25">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J25">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N25">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O25">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P25">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q25">
-        <v>3858.123564243098</v>
+        <v>7525.049709687363</v>
       </c>
       <c r="R25">
-        <v>23148.74138545859</v>
+        <v>45150.29825812418</v>
       </c>
       <c r="S25">
-        <v>0.007297018680304456</v>
+        <v>0.01893845687607621</v>
       </c>
       <c r="T25">
-        <v>0.005830900882380717</v>
+        <v>0.01581597146229784</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H26">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I26">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J26">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N26">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O26">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P26">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q26">
-        <v>5694.021802628919</v>
+        <v>63.7986043349625</v>
       </c>
       <c r="R26">
-        <v>34164.1308157735</v>
+        <v>382.791626009775</v>
       </c>
       <c r="S26">
-        <v>0.01076932419814693</v>
+        <v>0.0001605633402522379</v>
       </c>
       <c r="T26">
-        <v>0.008605550392670629</v>
+        <v>0.0001340903973294975</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H27">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I27">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J27">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P27">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q27">
-        <v>1.485812201085333</v>
+        <v>0.01776975494</v>
       </c>
       <c r="R27">
-        <v>13.372309809768</v>
+        <v>0.15992779446</v>
       </c>
       <c r="S27">
-        <v>2.810174222315501E-06</v>
+        <v>4.47215301709434E-08</v>
       </c>
       <c r="T27">
-        <v>3.368330561514884E-06</v>
+        <v>5.602207583983039E-08</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H28">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I28">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J28">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N28">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O28">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P28">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q28">
-        <v>2352.082282894202</v>
+        <v>20.76823752760167</v>
       </c>
       <c r="R28">
-        <v>21168.74054604782</v>
+        <v>186.914137748415</v>
       </c>
       <c r="S28">
-        <v>0.004448584414185107</v>
+        <v>5.226787675598394E-05</v>
       </c>
       <c r="T28">
-        <v>0.005332161514680701</v>
+        <v>6.547528549264911E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H29">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I29">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J29">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N29">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O29">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P29">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q29">
-        <v>36.534806426482</v>
+        <v>0.9531661153975</v>
       </c>
       <c r="R29">
-        <v>219.208838558892</v>
+        <v>5.718996692385</v>
       </c>
       <c r="S29">
-        <v>6.909969588484348E-05</v>
+        <v>2.39885397022083E-06</v>
       </c>
       <c r="T29">
-        <v>5.521617736770849E-05</v>
+        <v>2.003341992618208E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H30">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I30">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J30">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N30">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O30">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P30">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q30">
-        <v>3866.461807756163</v>
+        <v>7.996608122869999</v>
       </c>
       <c r="R30">
-        <v>34798.15626980547</v>
+        <v>71.96947310582999</v>
       </c>
       <c r="S30">
-        <v>0.007312789123542631</v>
+        <v>2.012523822864502E-05</v>
       </c>
       <c r="T30">
-        <v>0.008765254089636595</v>
+        <v>2.52106226694439E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H31">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I31">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J31">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N31">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O31">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P31">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q31">
-        <v>1669.014297028968</v>
+        <v>30.841317655855</v>
       </c>
       <c r="R31">
-        <v>15021.12867326071</v>
+        <v>277.571858902695</v>
       </c>
       <c r="S31">
-        <v>0.003156671449299441</v>
+        <v>7.761901740992545E-05</v>
       </c>
       <c r="T31">
-        <v>0.003783649010407527</v>
+        <v>9.723232776988475E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H32">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I32">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J32">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N32">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O32">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P32">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q32">
-        <v>310.365401634928</v>
+        <v>27.84109964458</v>
       </c>
       <c r="R32">
-        <v>1862.192409809568</v>
+        <v>167.04659786748</v>
       </c>
       <c r="S32">
-        <v>0.0005870061172845227</v>
+        <v>7.006830324624194E-05</v>
       </c>
       <c r="T32">
-        <v>0.0004690647834677591</v>
+        <v>5.851576460562171E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H33">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I33">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J33">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.184044</v>
       </c>
       <c r="O33">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P33">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q33">
-        <v>0.08098751928400001</v>
+        <v>0.007754550794666667</v>
       </c>
       <c r="R33">
-        <v>0.728887673556</v>
+        <v>0.069790957152</v>
       </c>
       <c r="S33">
-        <v>1.531748351877381E-07</v>
+        <v>1.951604726664837E-08</v>
       </c>
       <c r="T33">
-        <v>1.835983956157499E-07</v>
+        <v>2.444749712021819E-08</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H34">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I34">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J34">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N34">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O34">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P34">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q34">
-        <v>128.2055088148443</v>
+        <v>9.063059865894223</v>
       </c>
       <c r="R34">
-        <v>1153.849579333599</v>
+        <v>81.567538793048</v>
       </c>
       <c r="S34">
-        <v>0.0002424800494753957</v>
+        <v>2.280920061093733E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002906413967930558</v>
+        <v>2.857278723665105E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H35">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I35">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J35">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N35">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O35">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P35">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q35">
-        <v>1.991411389569</v>
+        <v>0.4159525599853333</v>
       </c>
       <c r="R35">
-        <v>11.948468337414</v>
+        <v>2.495715359912</v>
       </c>
       <c r="S35">
-        <v>3.766433570073298E-06</v>
+        <v>1.046836887952335E-06</v>
       </c>
       <c r="T35">
-        <v>3.009681321831621E-06</v>
+        <v>8.742392505299583E-07</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H36">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I36">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J36">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N36">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O36">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P36">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q36">
-        <v>210.7501540152703</v>
+        <v>3.489643165210666</v>
       </c>
       <c r="R36">
-        <v>1896.751386137433</v>
+        <v>31.40678848689599</v>
       </c>
       <c r="S36">
-        <v>0.0003985999372801761</v>
+        <v>8.782461132736095E-06</v>
       </c>
       <c r="T36">
-        <v>0.0004777697908894974</v>
+        <v>1.100167417702034E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H37">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I37">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J37">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N37">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O37">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P37">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q37">
-        <v>90.97335953168833</v>
+        <v>13.45885551850933</v>
       </c>
       <c r="R37">
-        <v>818.7602357851949</v>
+        <v>121.129699666584</v>
       </c>
       <c r="S37">
-        <v>0.0001720614420090552</v>
+        <v>3.387219549001744E-05</v>
       </c>
       <c r="T37">
-        <v>0.000206236257159843</v>
+        <v>4.243125620590295E-05</v>
       </c>
     </row>
   </sheetData>
